--- a/App/www/js/Lista_de_Bens.xlsx
+++ b/App/www/js/Lista_de_Bens.xlsx
@@ -13074,7 +13074,117 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8E4DC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -13153,6 +13263,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BensTable" displayName="BensTable" ref="A1:D2545" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:D2545"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="COD_BEM" dataDxfId="5"/>
+    <tableColumn id="2" name="DESC_BEM" dataDxfId="4"/>
+    <tableColumn id="3" name="CHAPA" dataDxfId="3"/>
+    <tableColumn id="4" name="COD_LOCAL" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13478,15 +13601,15 @@
   <dimension ref="A1:D2545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
@@ -49121,6 +49244,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/App/www/js/Lista_de_Bens.xlsx
+++ b/App/www/js/Lista_de_Bens.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
   </bookViews>
@@ -13074,117 +13074,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8E4DC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -13263,19 +13153,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="BensTable" displayName="BensTable" ref="A1:D2545" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:D2545"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="COD_BEM" dataDxfId="5"/>
-    <tableColumn id="2" name="DESC_BEM" dataDxfId="4"/>
-    <tableColumn id="3" name="CHAPA" dataDxfId="3"/>
-    <tableColumn id="4" name="COD_LOCAL" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13598,18 +13475,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan1"/>
   <dimension ref="A1:D2545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
@@ -49245,8 +49123,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>